--- a/data/raw/Total rocket emissions.xlsx
+++ b/data/raw/Total rocket emissions.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB2FECF-6374-0046-B776-E281F58587B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8800AD70-8D60-9347-A6F2-C6DAABAA49A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42260" yWindow="4320" windowWidth="28040" windowHeight="24180" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
+    <workbookView xWindow="68620" yWindow="2560" windowWidth="37840" windowHeight="24180" xr2:uid="{F106EAC8-F8DF-D34D-A945-DB96D06E5A47}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Climate change" sheetId="1" r:id="rId1"/>
+    <sheet name="Ozone depletion" sheetId="2" r:id="rId2"/>
+    <sheet name="Resource Depletion" sheetId="3" r:id="rId3"/>
+    <sheet name="Freshwater Toxicity" sheetId="4" r:id="rId4"/>
+    <sheet name="Human Toxicity" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -90,13 +94,151 @@
   </si>
   <si>
     <t>Unknown HYD Carbon Worst Case Emissions</t>
+  </si>
+  <si>
+    <t>Constellation</t>
+  </si>
+  <si>
+    <t>Number of Launches</t>
+  </si>
+  <si>
+    <t>Falcon-9</t>
+  </si>
+  <si>
+    <t>Soyuz-FG</t>
+  </si>
+  <si>
+    <t>HYC</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>Kuiper</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>OneWeb</t>
+  </si>
+  <si>
+    <t>Starlink</t>
+  </si>
+  <si>
+    <t>Baseline Total Carbon Emissions</t>
+  </si>
+  <si>
+    <t>Worst Case Total Carbon Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEO </t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>Social Carbon Cost</t>
+  </si>
+  <si>
+    <t>Subscribers</t>
+  </si>
+  <si>
+    <t>Annual per Subscriber Costs</t>
+  </si>
+  <si>
+    <t>Falcon-9 Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Falcon-9 Ozone Worst Case Emissions</t>
+  </si>
+  <si>
+    <t>Baseline Total Ozone Emissions</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Ozone Worst Case Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYC Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYC Ozone Worst Case Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYD Ozone Baseline Emissions</t>
+  </si>
+  <si>
+    <t>Unknown HYD Ozone Worst Case Emissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falcon-9 Resource Depletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soyuz-FG Ozone Resource Depletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown HYC Resource Depletion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown HYD Resource Depletion </t>
+  </si>
+  <si>
+    <t>Total Resource Depletion</t>
+  </si>
+  <si>
+    <t>Falcon-9 Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYC Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYD Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Total Freshwater Toxicity</t>
+  </si>
+  <si>
+    <t>Falcon-9 Human Toxicity</t>
+  </si>
+  <si>
+    <t>Soyuz-FG Human Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYC Human Toxicity</t>
+  </si>
+  <si>
+    <t>Unknown HYD Human Toxicity</t>
+  </si>
+  <si>
+    <t>Total Human Toxicity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="178" formatCode="0.00000000000"/>
+    <numFmt numFmtId="179" formatCode="0.000000000000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,18 +250,19 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Menlo"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +281,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9C55A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -188,35 +367,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9C55A0"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -525,191 +802,620 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E160F6F2-9C9B-1B42-B2C8-1D2D657E43F0}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="16" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="42"/>
+      <c r="D1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="35"/>
+      <c r="G1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="5"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>4113533.9070000001</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>26728958.940000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="I3" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <v>67</v>
+      </c>
+      <c r="L3" s="7">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7">
+        <f>I3*B10</f>
+        <v>77600559.281729996</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <f>K3*B36</f>
+        <v>2757562910.4841204</v>
+      </c>
+      <c r="P3" s="7">
+        <f>B49*L3</f>
+        <v>651159571.63639998</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>M3+O3+P3</f>
+        <v>3486323041.4022503</v>
+      </c>
+      <c r="R3" s="44">
+        <f>((Q3/1000)*185)/1000000</f>
+        <v>644.96976265941635</v>
+      </c>
+      <c r="S3" s="44">
+        <f>((R3/H3)/5)*1000000</f>
+        <v>51.597581012753309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
         <v>4113533.9070000001</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>4113533.9070000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>B10*I4</f>
+        <v>129334265.46954998</v>
+      </c>
+      <c r="N4" s="7">
+        <f>B23*J4</f>
+        <v>790278407.44731188</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <f>B49*L4</f>
+        <v>65115957.16364</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>M4+N4+P4</f>
+        <v>984728630.08050191</v>
+      </c>
+      <c r="R4" s="44">
+        <f t="shared" ref="R4:R6" si="0">((Q4/1000)*185)/1000000</f>
+        <v>182.17479656489286</v>
+      </c>
+      <c r="S4" s="44">
+        <f t="shared" ref="S4:S5" si="1">((R4/H4)/5)*1000000</f>
+        <v>45.543699141223215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>1616263.557</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>1616263.557</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>127</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
+        <f>B10*I5</f>
+        <v>3285090342.9265695</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8">
+        <f>M5</f>
+        <v>3285090342.9265695</v>
+      </c>
+      <c r="R5" s="44">
+        <f t="shared" si="0"/>
+        <v>607.7417134414153</v>
+      </c>
+      <c r="S5" s="44">
+        <f t="shared" si="1"/>
+        <v>34.728097910938011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>4744753.3389999997</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="2">
         <v>4744753.3389999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <f>B36*K6</f>
+        <v>411576553.80360007</v>
+      </c>
+      <c r="P6" s="7">
+        <f>B49*L6</f>
+        <v>293021807.23637998</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>O6+P6</f>
+        <v>704598361.03998005</v>
+      </c>
+      <c r="R6" s="44">
+        <f t="shared" si="0"/>
+        <v>130.35069679239632</v>
+      </c>
+      <c r="S6" s="44">
+        <f>((R6/H6)/15)*1000000</f>
+        <v>3.4760185811305688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>5594990.9170000004</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="2">
         <v>5594990.9170000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="S7" s="45"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="7">
         <v>17220.724910000001</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2">
         <v>17220.724910000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="S8" s="45"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="7">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>5666556.7419999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="G9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="46">
         <f>SUM(B3:B9)</f>
         <v>25866853.093909997</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="46">
         <f>SUM(E3:E9)</f>
         <v>48482278.126910001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="G10" s="36"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>67</v>
+      </c>
+      <c r="L11" s="7">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7">
+        <f>E10*I11</f>
+        <v>145446834.38073</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <f>E36*K11</f>
+        <v>3908562848.4681201</v>
+      </c>
+      <c r="P11" s="7">
+        <f>E49*L11</f>
+        <v>2794670099.6364002</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>M11+O11+P11</f>
+        <v>6848679782.4852505</v>
+      </c>
+      <c r="R11" s="44">
+        <f>((Q11/1000)*185)/1000000</f>
+        <v>1267.0057597597713</v>
+      </c>
+      <c r="S11" s="44">
+        <f>((R11/H11)/5)*1000000</f>
+        <v>101.36046078078171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
+        <v>800000</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
+        <f>E10*I12</f>
+        <v>242411390.63455001</v>
+      </c>
+      <c r="N12" s="7">
+        <f>E23*J12</f>
+        <v>954677356.57291198</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <f>E49*L12</f>
+        <v>279467009.96364003</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>M12+N12+P12</f>
+        <v>1476555757.171102</v>
+      </c>
+      <c r="R12" s="44">
+        <f t="shared" ref="R12:R14" si="2">((Q12/1000)*185)/1000000</f>
+        <v>273.16281507665389</v>
+      </c>
+      <c r="S12" s="44">
+        <f t="shared" ref="S12:S13" si="3">((R12/H12)/5)*1000000</f>
+        <v>68.290703769163471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="I13" s="7">
+        <v>127</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <f>E10*I13</f>
+        <v>6157249322.1175699</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8">
+        <f>M13</f>
+        <v>6157249322.1175699</v>
+      </c>
+      <c r="R13" s="44">
+        <f t="shared" si="2"/>
+        <v>1139.0911245917505</v>
+      </c>
+      <c r="S13" s="44">
+        <f t="shared" si="3"/>
+        <v>65.090921405242895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="D14" s="7" t="s">
+      <c r="B14" s="42"/>
+      <c r="D14" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="40"/>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7">
+        <v>9</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <f>E36*K14</f>
+        <v>583367589.32360005</v>
+      </c>
+      <c r="P14" s="7">
+        <f>E49*L14</f>
+        <v>1257601544.8363802</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>O14+P14</f>
+        <v>1840969134.1599803</v>
+      </c>
+      <c r="R14" s="44">
+        <f t="shared" si="2"/>
+        <v>340.57928981959634</v>
+      </c>
+      <c r="S14" s="44">
+        <f>((R14/H14)/15)*1000000</f>
+        <v>9.0821143951892349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>288655.10960000003</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="2">
@@ -717,13 +1423,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2">
         <v>44680412.979999997</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="2">
@@ -731,13 +1437,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E18" s="2">
@@ -745,13 +1451,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="2">
         <v>968910.19940000004</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2">
@@ -759,13 +1465,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2">
         <v>3223330.483</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="2">
@@ -773,13 +1479,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>4328.6038079999998</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="2">
@@ -787,13 +1493,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2">
@@ -801,53 +1507,53 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="46">
         <f>SUM(B16:B22)</f>
         <v>56448457.674807996</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="46">
         <f>SUM(E16:E22)</f>
         <v>68191239.755208001</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="42"/>
+      <c r="D27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B29" s="2">
         <v>2201094.5079999999</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E29" s="2">
@@ -855,13 +1561,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>24396973.440000001</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="2">
@@ -869,13 +1575,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B31" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="2">
@@ -883,13 +1589,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="2">
         <v>2856831.7689999999</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="2">
@@ -897,13 +1603,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B33" s="2">
         <v>4409160.7</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="2">
@@ -911,13 +1617,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="2">
         <v>10774.664360000001</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="2">
@@ -925,13 +1631,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E35" s="2">
@@ -939,71 +1645,59 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="46">
         <f>SUM(B29:B35)</f>
         <v>41157655.380360007</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="46">
         <f>SUM(E29:E35)</f>
         <v>58336758.932360001</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <f>B36*27</f>
-        <v>1111256695.2697201</v>
-      </c>
-    </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <f>B36*28</f>
-        <v>1152414350.6500802</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <f>B36*2</f>
-        <v>82315310.760720015</v>
+      <c r="B38" s="2">
+        <f>B36*67</f>
+        <v>2757562910.4841204</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="D40" s="7" t="s">
+      <c r="B40" s="42"/>
+      <c r="D40" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="2">
         <v>467816.8</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E42" s="2">
@@ -1011,13 +1705,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>11018755.48</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="2">
@@ -1025,13 +1719,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="2">
         <v>1616263.557</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="2">
@@ -1039,13 +1733,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B45" s="2">
         <v>4793267.4800000004</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="2">
@@ -1053,13 +1747,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="2">
         <v>8984275.3359999992</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E46" s="2">
@@ -1067,13 +1761,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="2">
         <v>11043.186820000001</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="2">
@@ -1081,13 +1775,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B48" s="2">
         <v>5666556.7419999996</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E48" s="2">
@@ -1095,23 +1789,35 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="46">
         <f>SUM(B42:B48)</f>
         <v>32557978.58182</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="46">
         <f>SUM(E42:E48)</f>
         <v>139733504.98182002</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="20">
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="A1:B1"/>
@@ -1124,4 +1830,3074 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559E036-65B0-4E46-95DA-9D9F88511943}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H53" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="2" customWidth="1"/>
+    <col min="9" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="2"/>
+    <col min="15" max="16" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="D1" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="35"/>
+      <c r="G1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6837.18</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30767.31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7">
+        <v>67</v>
+      </c>
+      <c r="L3" s="7">
+        <v>20</v>
+      </c>
+      <c r="M3" s="7">
+        <f>I3*B10</f>
+        <v>20518.325370500996</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <f>K3*B36</f>
+        <v>335038.20790575002</v>
+      </c>
+      <c r="P3" s="7">
+        <f>B49*L3</f>
+        <v>446462.67240574001</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>M3+O3+P3</f>
+        <v>802019.20568199106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.27747851400000001</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.27747851400000001</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>2</v>
+      </c>
+      <c r="M4" s="7">
+        <f>B10*I4</f>
+        <v>34197.208950834989</v>
+      </c>
+      <c r="N4" s="7">
+        <f>B23*J4</f>
+        <v>44262.196305683996</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7">
+        <f>B49*L4</f>
+        <v>44646.267240574001</v>
+      </c>
+      <c r="Q4" s="8">
+        <f>M4+N4+P4</f>
+        <v>123105.67249709298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="I5" s="7">
+        <v>127</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7">
+        <f>B10*I5</f>
+        <v>868609.1073512088</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8">
+        <f>M5</f>
+        <v>868609.1073512088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.54687465300000004</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.54687465300000004</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <f>B36*K6</f>
+        <v>50005.702672500003</v>
+      </c>
+      <c r="P6" s="7">
+        <f>B49*L6</f>
+        <v>200908.20258258301</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>O6+P6</f>
+        <v>250913.90525508299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.49942301500000003</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.49942301500000003</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.5682840000000001E-3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3.5682840000000001E-3</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <f>SUM(B3:B9)</f>
+        <v>6839.4417901669985</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="27">
+        <f>SUM(E3:E9)</f>
+        <v>30769.571790167</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="39"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
+        <v>67</v>
+      </c>
+      <c r="L11" s="7">
+        <v>20</v>
+      </c>
+      <c r="M11" s="7">
+        <f>E10*I11</f>
+        <v>92308.715370500999</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <f>E36*K11</f>
+        <v>1495649.952559229</v>
+      </c>
+      <c r="P11" s="7">
+        <f>E49*L11</f>
+        <v>446462.67240574001</v>
+      </c>
+      <c r="Q11" s="8">
+        <f>M11+O11+P11</f>
+        <v>2034421.3403354699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="7">
+        <v>800000</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>14</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>2</v>
+      </c>
+      <c r="M12" s="7">
+        <f>E10*I12</f>
+        <v>153847.85895083501</v>
+      </c>
+      <c r="N12" s="7">
+        <f>E23*J12</f>
+        <v>194273.73630568397</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7">
+        <f>E49*L12</f>
+        <v>44646.267240574001</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>M12+N12+P12</f>
+        <v>392767.86249709298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="I13" s="7">
+        <v>127</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
+        <f>E10*I13</f>
+        <v>3907735.6173512088</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8">
+        <f>M13</f>
+        <v>3907735.6173512088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="D14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="G14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7">
+        <v>10</v>
+      </c>
+      <c r="L14" s="7">
+        <v>9</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <f>E36*K14</f>
+        <v>223231.33620287001</v>
+      </c>
+      <c r="P14" s="7">
+        <f>E49*L14</f>
+        <v>200908.20258258301</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>O14+P14</f>
+        <v>424139.53878545301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3157.14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13872.25</v>
+      </c>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.1118177299999998</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.1118177299999998</v>
+      </c>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.109998823</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.109998823</v>
+      </c>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.28784860099999998</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.28784860099999998</v>
+      </c>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.339551E-3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.339551E-3</v>
+      </c>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="27">
+        <f>SUM(B16:B22)</f>
+        <v>3161.5854504059998</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="27">
+        <f>SUM(E16:E22)</f>
+        <v>13876.695450405998</v>
+      </c>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="D27" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4997.16</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="2">
+        <v>22319.78</v>
+      </c>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.385083701</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.32843673800000001</v>
+      </c>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="41">
+        <f>SUM(B29:B35)</f>
+        <v>5000.5702672500001</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="27">
+        <f>SUM(E29:E35)</f>
+        <v>22323.133620287001</v>
+      </c>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
+        <f>B36*67</f>
+        <v>335038.20790575002</v>
+      </c>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="40" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="D40" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>22319.78</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>22319.78</v>
+      </c>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1.694648122</v>
+      </c>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0.156575296</v>
+      </c>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.32843673800000001</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.32843673800000001</v>
+      </c>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0.39363580799999998</v>
+      </c>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2.4539179999999998E-3</v>
+      </c>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0.77787040500000004</v>
+      </c>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="41">
+        <f>SUM(B42:B48)</f>
+        <v>22323.133620287001</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="27">
+        <f>SUM(E42:E48)</f>
+        <v>22323.133620287001</v>
+      </c>
+      <c r="Q49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCD65F1-702F-2B4B-BF58-F41D5B429507}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="138" zoomScaleNormal="138" workbookViewId="0">
+      <selection activeCell="D26" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="14" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <f>G3*B10</f>
+        <v>6431.2147830900003</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <f>I3*B36</f>
+        <v>496894.71230768895</v>
+      </c>
+      <c r="N3" s="7">
+        <f>B49*J3</f>
+        <v>148326.77979333999</v>
+      </c>
+      <c r="O3" s="8">
+        <f>K3+M3+N3</f>
+        <v>651652.70688411896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1783.3371179999999</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>B10*G4</f>
+        <v>10718.691305150001</v>
+      </c>
+      <c r="L4" s="7">
+        <f>B23*H4</f>
+        <v>177645.15602951602</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f>B49*J4</f>
+        <v>14832.677979333999</v>
+      </c>
+      <c r="O4" s="8">
+        <f>K4+L4+N4</f>
+        <v>203196.525314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <f>B10*G5</f>
+        <v>272254.75915081002</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>K5</f>
+        <v>272254.75915081002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>32.926631960000002</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <f>B36*I6</f>
+        <v>74163.389896669993</v>
+      </c>
+      <c r="N6" s="7">
+        <f>B49*J6</f>
+        <v>66747.050907002995</v>
+      </c>
+      <c r="O6" s="8">
+        <f>M6+N6</f>
+        <v>140910.440803673</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>277.7569651</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.83687164000000003</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(B3:B9)</f>
+        <v>2143.7382610300001</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>12473.408600000001</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.7162504900000002</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>159.77569800000001</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.158493574</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17">
+        <f>SUM(B16:B22)</f>
+        <v>12688.939716394001</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>7128.3728600000004</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>19.821441230000001</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>218.76633150000001</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.497682607</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="17">
+        <f>SUM(B29:B35)</f>
+        <v>7416.3389896669996</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="29"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>7128.3728600000004</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>15.654664349999999</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>19.821441230000001</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>218.76633150000001</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.497682607</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.226009980000001</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="17">
+        <f>SUM(B42:B48)</f>
+        <v>7416.3389896669996</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD704017-C293-6A41-A602-235B528EE5B4}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="D32" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <f>G3*B10</f>
+        <v>296782888.63926005</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <f>I3*B36</f>
+        <v>14419162694.636681</v>
+      </c>
+      <c r="N3" s="7">
+        <f>B49*J3</f>
+        <v>4304227670.0408001</v>
+      </c>
+      <c r="O3" s="8">
+        <f>K3+M3+N3</f>
+        <v>19020173253.316742</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>20253601.640000001</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>B10*G4</f>
+        <v>494638147.73210001</v>
+      </c>
+      <c r="L4" s="7">
+        <f>B23*H4</f>
+        <v>4640931923.4553795</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f>B49*J4</f>
+        <v>430422767.00408</v>
+      </c>
+      <c r="O4" s="8">
+        <f>K4+L4+N4</f>
+        <v>5565992838.1915588</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <f>B10*G5</f>
+        <v>12563808952.395342</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>K5</f>
+        <v>12563808952.395342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15292951.199999999</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <f>B36*I6</f>
+        <v>2152113835.0204</v>
+      </c>
+      <c r="N6" s="7">
+        <f>B49*J6</f>
+        <v>1936902451.5183599</v>
+      </c>
+      <c r="O6" s="8">
+        <f>M6+N6</f>
+        <v>4089016286.5387602</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7">
+        <v>36949013.689999998</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7">
+        <v>47571.203419999998</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <f>SUM(B3:B9)</f>
+        <v>98927629.546420008</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7">
+        <v>280703930.5</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="7">
+        <v>3114043.0980000002</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>21269740.34</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7">
+        <v>22931.63867</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="28">
+        <f>SUM(B16:B22)</f>
+        <v>331495137.38966995</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="7">
+        <v>150478766.09999999</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="7">
+        <v>9203497.148</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7">
+        <v>29109377.02</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7">
+        <v>35251.421040000001</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="28">
+        <f>SUM(B29:B35)</f>
+        <v>215211383.50204</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="7">
+        <v>150478766.09999999</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="7">
+        <v>7701094.9929999998</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="7">
+        <v>9203497.148</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="7">
+        <v>29109377.02</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7">
+        <v>35251.421040000001</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="7">
+        <v>18683396.82</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="28">
+        <f>SUM(B42:B48)</f>
+        <v>215211383.50204</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{155E3A6C-6937-CF4F-86E2-086E04CF37A1}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
+    <col min="7" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2500000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7">
+        <v>67</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <f>G3*B10</f>
+        <v>22.538475633000001</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7">
+        <f>I3*B36</f>
+        <v>1022.2387851669999</v>
+      </c>
+      <c r="N3" s="7">
+        <f>B49*J3</f>
+        <v>305.14590601999998</v>
+      </c>
+      <c r="O3" s="8">
+        <f>K3+M3+N3</f>
+        <v>1349.92316682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1.51530806</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7">
+        <v>800000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <f>B10*G4</f>
+        <v>37.564126055000003</v>
+      </c>
+      <c r="L4" s="7">
+        <f>B23*H4</f>
+        <v>322.02471547400006</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f>B49*J4</f>
+        <v>30.514590601999998</v>
+      </c>
+      <c r="O4" s="8">
+        <f>K4+L4+N4</f>
+        <v>390.10343213100009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>127</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7">
+        <f>B10*G5</f>
+        <v>954.12880179700005</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="8">
+        <f>K5</f>
+        <v>954.12880179700005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.3787279640000001</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2500000</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="7">
+        <v>9</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7">
+        <f>B36*I6</f>
+        <v>152.57295300999999</v>
+      </c>
+      <c r="N6" s="7">
+        <f>B49*J6</f>
+        <v>137.31565770899999</v>
+      </c>
+      <c r="O6" s="8">
+        <f>M6+N6</f>
+        <v>289.88861071899998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2.431926984</v>
+      </c>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.7666840000000002E-3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(B3:B9)</f>
+        <v>7.512825211</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2">
+        <v>19.136126900000001</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.28140976000000001</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1.399552839</v>
+      </c>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.580373E-3</v>
+      </c>
+      <c r="O21" s="9"/>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="O22" s="9"/>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="17">
+        <f>SUM(B16:B22)</f>
+        <v>23.001765391000003</v>
+      </c>
+      <c r="O23" s="9"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="O27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>10.32571748</v>
+      </c>
+      <c r="O30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="O31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.83006886199999996</v>
+      </c>
+      <c r="O32" s="9"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.915739911</v>
+      </c>
+      <c r="O33" s="9"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3.673529E-3</v>
+      </c>
+      <c r="O34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="O35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="17">
+        <f>SUM(B29:B35)</f>
+        <v>15.257295300999999</v>
+      </c>
+      <c r="O36" s="9"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="O40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2">
+        <v>10.32571748</v>
+      </c>
+      <c r="O43" s="9"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.486234151</v>
+      </c>
+      <c r="O44" s="9"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.83006886199999996</v>
+      </c>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1.915739911</v>
+      </c>
+      <c r="O46" s="9"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2">
+        <v>3.673529E-3</v>
+      </c>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2">
+        <v>1.6958613680000001</v>
+      </c>
+      <c r="O48" s="9"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="21">
+        <f>SUM(B42:B48)</f>
+        <v>15.257295300999999</v>
+      </c>
+      <c r="O49" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>